--- a/CON 1 Kryptokonzept.xlsx
+++ b/CON 1 Kryptokonzept.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SönkevonRepel\Documents\GitHub\BSIBausteinVergleich\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304E48C1-2C04-41F8-A754-A996602947CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FB5D88-A5CB-4F49-8E93-1D0AEE53F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CON.1.A1 Auswahl geeigneter kryptografischer Verfahren (B)</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Ebenso MÜSSEN aktuell empfohlene Schlüssellängen verwendet werden.</t>
+  </si>
+  <si>
+    <t>Um eine geeignete Schlüssellänge auszuwählen, SOLLTE berücksichtigt werden, wie lange das kryptografische Verfahren eingesetzt werden soll.</t>
+  </si>
+  <si>
+    <t>Bei einer längeren Einsatzdauer SOLLTEN entsprechend längere Schlüssellängen eingesetzt werden.</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,6 +404,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CON 1 Kryptokonzept.xlsx
+++ b/CON 1 Kryptokonzept.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SönkevonRepel\Documents\GitHub\BSIBausteinVergleich\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FB5D88-A5CB-4F49-8E93-1D0AEE53F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C84FF-3BE7-45DD-AFB1-9B1C17EF5970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CON.1.A1 Auswahl geeigneter kryptografischer Verfahren (B)</t>
   </si>
@@ -39,10 +39,25 @@
     <t>Ebenso MÜSSEN aktuell empfohlene Schlüssellängen verwendet werden.</t>
   </si>
   <si>
-    <t>Um eine geeignete Schlüssellänge auszuwählen, SOLLTE berücksichtigt werden, wie lange das kryptografische Verfahren eingesetzt werden soll.</t>
-  </si>
-  <si>
-    <t>Bei einer längeren Einsatzdauer SOLLTEN entsprechend längere Schlüssellängen eingesetzt werden.</t>
+    <t>CON.1.A2 Datensicherung bei Einsatz kryptografischer Verfahren (B)</t>
+  </si>
+  <si>
+    <t>In Datensicherungen MÜSSEN kryptografische Schlüssel vom IT-Betrieb derart gespeichert bzw. aufbewahrt werden, dass Unbefugte nicht darauf zugreifen können.</t>
+  </si>
+  <si>
+    <t>Langlebige kryptografische Schlüssel MÜSSEN außerhalb der eingesetzten IT-Systeme aufbewahrt werden.</t>
+  </si>
+  <si>
+    <t>Bei einer Langzeitspeicherung verschlüsselter Daten SOLLTE regelmäßig geprüft werden, ob die verwendeten kryptografischen Algorithmen und die Schlüssellängen noch dem Stand der Technik entsprechen.</t>
+  </si>
+  <si>
+    <t>Der IT-Betrieb MUSS sicherstellen, dass auf verschlüsselt gespeicherte Daten auch nach längeren Zeiträumen noch zugegriffen werden kann.</t>
+  </si>
+  <si>
+    <t>Verwendete Kryptoprodukte SOLLTEN archiviert werden.</t>
+  </si>
+  <si>
+    <t>Die Konfigurationsdaten von Kryptoprodukten SOLLTEN gesichert werden.</t>
   </si>
 </sst>
 </file>
@@ -374,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,13 +420,36 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CON 1 Kryptokonzept.xlsx
+++ b/CON 1 Kryptokonzept.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SönkevonRepel\Documents\GitHub\BSIBausteinVergleich\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C84FF-3BE7-45DD-AFB1-9B1C17EF5970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6327954E-CEE8-4363-BC80-533352412A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CON.1.A1 Auswahl geeigneter kryptografischer Verfahren (B)</t>
   </si>
@@ -42,22 +42,25 @@
     <t>CON.1.A2 Datensicherung bei Einsatz kryptografischer Verfahren (B)</t>
   </si>
   <si>
-    <t>In Datensicherungen MÜSSEN kryptografische Schlüssel vom IT-Betrieb derart gespeichert bzw. aufbewahrt werden, dass Unbefugte nicht darauf zugreifen können.</t>
-  </si>
-  <si>
-    <t>Langlebige kryptografische Schlüssel MÜSSEN außerhalb der eingesetzten IT-Systeme aufbewahrt werden.</t>
-  </si>
-  <si>
-    <t>Bei einer Langzeitspeicherung verschlüsselter Daten SOLLTE regelmäßig geprüft werden, ob die verwendeten kryptografischen Algorithmen und die Schlüssellängen noch dem Stand der Technik entsprechen.</t>
-  </si>
-  <si>
-    <t>Der IT-Betrieb MUSS sicherstellen, dass auf verschlüsselt gespeicherte Daten auch nach längeren Zeiträumen noch zugegriffen werden kann.</t>
-  </si>
-  <si>
-    <t>Verwendete Kryptoprodukte SOLLTEN archiviert werden.</t>
-  </si>
-  <si>
-    <t>Die Konfigurationsdaten von Kryptoprodukten SOLLTEN gesichert werden.</t>
+    <t>Um eine geeignete Schlüssellänge auszuwählen, SOLLTE berücksichtigt werden, wie lange das kryptografische Verfahren eingesetzt werden soll.</t>
+  </si>
+  <si>
+    <t>Bei einer längeren Einsatzdauer SOLLTEN entsprechend längere Schlüssellängen eingesetzt werden.</t>
+  </si>
+  <si>
+    <t>In Datensicherungen MÜSSEN kryptografische Schlüssel vom IT-Betrieb derart gespeichert oder aufbewahrt werden, dass Unbefugte nicht darauf zugreifen können.</t>
+  </si>
+  <si>
+    <t>Langlebige kryptografische Schlüssel MÜSSEN offline, außerhalb der eingesetzten IT-Systeme, aufbewahrt werden.</t>
+  </si>
+  <si>
+    <t>Bei einer Langzeitspeicherung verschlüsselter Informationen SOLLTE regelmäßig geprüft werden, ob die verwendeten kryptografischen Algorithmen und die Schlüssellängen noch für die jeweiligen Informationen geeignet sind.</t>
+  </si>
+  <si>
+    <t>Der IT-Betrieb MUSS sicherstellen, dass auf verschlüsselt gespeicherte Informationen auch nach längeren Zeiträumen noch zugegriffen werden kann.</t>
+  </si>
+  <si>
+    <t>Verwendete Hard- oder Software mit kryptografischen Funktionen SOLLTE archiviert werden.</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,9 +423,6 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -432,24 +432,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
